--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/沟通计划.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/沟通计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>沟通计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>职责</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>访谈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《需求工程计划》评审</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预约访谈时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小组例会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +131,54 @@
   </si>
   <si>
     <t>第13周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄栋材做会议记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈泓见预约用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组全体在场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组内部平常沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常事情的沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信群（PRD-G24）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天记录要保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定访谈时间和地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,10 +230,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -528,20 +560,20 @@
     <col min="1" max="1" width="28.109375" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.21875" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -553,154 +585,162 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/沟通计划.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/沟通计划.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>沟通计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>访谈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需求获取及确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>访谈预约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小组例会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +167,54 @@
   </si>
   <si>
     <t>确定访谈时间和地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访谈郑楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访谈杨枨老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取学生代表需求及确认需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约郑楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约杨枨老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约访谈时间地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前3天预约</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +233,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -225,15 +269,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,198 +596,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E12" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
